--- a/output/teste_processos.xlsx
+++ b/output/teste_processos.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,30 +529,58 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>processo_3</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>3130687-11.2024.8.01.5042</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Nome Aleatório 98</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Advogado Exemplo </t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>43679</v>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>7/8/2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
           <t>processo_1</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>3781128-20.2024.8.01.8252</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Nome Aleatório 86</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Advogado Exemplo </t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>44432</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
+      <c r="E4" s="3" t="n">
+        <v>44432</v>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>12/5/2024</t>
         </is>

--- a/output/teste_processos.xlsx
+++ b/output/teste_processos.xlsx
@@ -499,17 +499,17 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>processo_2</t>
+          <t>processo_3</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>4835245-15.2024.8.01.2832</t>
+          <t>3130687-11.2024.8.01.5042</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Nome Aleatório 2</t>
+          <t>Nome Aleatório 98</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -518,28 +518,28 @@
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>12723</v>
+        <v>43679</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>25/5/2024</t>
+          <t>7/8/2024</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>processo_3</t>
+          <t>processo_2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>3130687-11.2024.8.01.5042</t>
+          <t>4835245-15.2024.8.01.2832</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Nome Aleatório 98</t>
+          <t>Nome Aleatório 2</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -548,11 +548,11 @@
         </is>
       </c>
       <c r="E3" s="3" t="n">
-        <v>43679</v>
+        <v>12723</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>7/8/2024</t>
+          <t>25/5/2024</t>
         </is>
       </c>
     </row>

--- a/output/teste_processos.xlsx
+++ b/output/teste_processos.xlsx
@@ -529,17 +529,17 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>processo_2</t>
+          <t>processo_1</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>4835245-15.2024.8.01.2832</t>
+          <t>3781128-20.2024.8.01.8252</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Nome Aleatório 2</t>
+          <t>Nome Aleatório 86</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -548,28 +548,28 @@
         </is>
       </c>
       <c r="E3" s="3" t="n">
-        <v>12723</v>
+        <v>44432</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>25/5/2024</t>
+          <t>12/5/2024</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>processo_1</t>
+          <t>processo_2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>3781128-20.2024.8.01.8252</t>
+          <t>4835245-15.2024.8.01.2832</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Nome Aleatório 86</t>
+          <t>Nome Aleatório 2</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -578,11 +578,11 @@
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>44432</v>
+        <v>12723</v>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>12/5/2024</t>
+          <t>25/5/2024</t>
         </is>
       </c>
     </row>
